--- a/02_Recherche/04_Morphologischer_Kasten.xlsx
+++ b/02_Recherche/04_Morphologischer_Kasten.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\FS24\PRAX_6\Praxismodul\03_Recherche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\02_Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E03127-450D-4FFA-946C-E9C1B429A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D57EFC-EDDB-4A98-A8D6-59C0A281C46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{250A9501-1077-4650-B742-8F5EBACF6A0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{250A9501-1077-4650-B742-8F5EBACF6A0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General Brainstorm" sheetId="1" r:id="rId1"/>
+    <sheet name="Konzepte&amp;Erfüllungsgrade" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>Basisanforderung</t>
   </si>
@@ -172,6 +173,174 @@
   </si>
   <si>
     <t>ja</t>
+  </si>
+  <si>
+    <t>SPI Schnittstelle - durchverdahten.</t>
+  </si>
+  <si>
+    <t>2.1A</t>
+  </si>
+  <si>
+    <t>ClosedLoop</t>
+  </si>
+  <si>
+    <t>SPI/UART</t>
+  </si>
+  <si>
+    <t>Von Chip übernommen</t>
+  </si>
+  <si>
+    <t>Encoder &amp; Sensoren -&gt; RegAdressierbar</t>
+  </si>
+  <si>
+    <t>Register auslesen</t>
+  </si>
+  <si>
+    <t>VAR1</t>
+  </si>
+  <si>
+    <t>TMC5240</t>
+  </si>
+  <si>
+    <t>StallGuard &amp; abfragen von Schritten</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Lastenheft Punkte erfüllt</t>
+  </si>
+  <si>
+    <t>Schrittmotorenbetrieb</t>
+  </si>
+  <si>
+    <t>Ansteuerung 2phas Schrittmotor</t>
+  </si>
+  <si>
+    <t>nur 1 Motor angeschlossen</t>
+  </si>
+  <si>
+    <t>Uout 24V</t>
+  </si>
+  <si>
+    <t>Iout mind. 1.5A rms</t>
+  </si>
+  <si>
+    <t>Motorenstecker SMSe</t>
+  </si>
+  <si>
+    <t>Openloop Betrieb</t>
+  </si>
+  <si>
+    <t>Sinnvolle und robuste Schnittstelle</t>
+  </si>
+  <si>
+    <t>Profile Position Mode</t>
+  </si>
+  <si>
+    <t>Detektion 2er Endlagensensoren</t>
+  </si>
+  <si>
+    <t>EMV-Konzept</t>
+  </si>
+  <si>
+    <t>Ziel HK 40CHF</t>
+  </si>
+  <si>
+    <t>Montage auf gleiches Gehäuse IOe2</t>
+  </si>
+  <si>
+    <t>Ziel HK 30CHF</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>X1.1</t>
+  </si>
+  <si>
+    <t>X1.2</t>
+  </si>
+  <si>
+    <t>Positionsüberwachung mittels Encoder</t>
+  </si>
+  <si>
+    <t>X2.1</t>
+  </si>
+  <si>
+    <t>Encoder signale auf IOe2</t>
+  </si>
+  <si>
+    <t>X2.2</t>
+  </si>
+  <si>
+    <t>X2.3</t>
+  </si>
+  <si>
+    <t>Weitere Erweiterungsboards anschliessen</t>
+  </si>
+  <si>
+    <t>Openloop überw. Z.B. StallGuard</t>
+  </si>
+  <si>
+    <t>höhere Ausgangsströme (2/3A)</t>
+  </si>
+  <si>
+    <t>Homing Sensor Eingang</t>
+  </si>
+  <si>
+    <t>Cyclic Sync Mode</t>
+  </si>
+  <si>
+    <t>48V Möglichkeit</t>
+  </si>
+  <si>
+    <t>X3.1</t>
+  </si>
+  <si>
+    <t>X3.2</t>
+  </si>
+  <si>
+    <t>X3.3</t>
+  </si>
+  <si>
+    <t>VAR2</t>
   </si>
 </sst>
 </file>
@@ -195,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +401,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -245,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +461,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,18 +896,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1A5491-902C-40F4-B0D8-78C5C9E10D07}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="53.796875" defaultRowHeight="215.75" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="53.85546875" defaultRowHeight="215.85" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="53.796875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="53.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,12 +921,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -747,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -761,7 +948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -775,7 +962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -783,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -797,7 +984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -814,7 +1001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -828,7 +1015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -848,7 +1035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -856,7 +1043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -873,7 +1060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -887,7 +1074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -901,7 +1088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -918,7 +1105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -932,7 +1119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -940,7 +1127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="215.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="215.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -950,4 +1137,354 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D625EC4B-76A5-4B4A-A529-2757BECF8524}">
+  <dimension ref="A5:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{78ba2ad2-1b1e-4cec-9ee3-2fdbfa21151f}" enabled="1" method="Privileged" siteId="{8c09d8d5-1d78-4adf-9d10-a13cdacb0929}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>